--- a/medicine/Enfance/Frank_Cottrell-Boyce/Frank_Cottrell-Boyce.xlsx
+++ b/medicine/Enfance/Frank_Cottrell-Boyce/Frank_Cottrell-Boyce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Cottrell-Boyce (né en 1959 à Liverpool) est un scénariste et écrivain britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Cottrell-Boyce est un romancier pour la jeunesse. On lui doit en tant que scénariste, Bienvenue à Sarajevo, Hilary et Jackie (Hilary and Jackie) et 24 Hour Party People. Il se destinait à la prêtrise lorsqu'il a rencontré sa femme qui se préparait à être religieuse. Ils ont sept enfants et habitent Liverpool. Auteur au style acéré, à l'écriture vive, à l'imagination foisonnante, Boyce écrit des histoires drôles pleines d'émotion et utilise pour cela le langage convaincant des adolescents.
 Sous le pseudonyme de Martin Hardy, il a écrit le scénario de Tournage dans un jardin anglais, réalisé par Michael Winterbottom.
@@ -543,7 +557,9 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son premier roman, Millions, a remporté la Médaille Carnegie et a figuré dans les plus prestigieuses sélections de livres. Il a également fait l'objet d'une adaptation cinématographique par Danny Boyle. L'auteur conjugue dans ce roman les thèmes du deuil et de l'argent.
 En écrivant Le Crime parfait, histoire inspirée par un fait divers authentique, l'auteur reconnaît avoir été particulièrement intéressé par la manière dont les œuvres d'art pouvaient changer le regard des gens sur la vie.
@@ -576,21 +592,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans pour la jeunesse
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse
 Millions (Millions, Macmillan Children's Books, 2004). Paris : Gallimard jeunesse, 2004, 228 p.  (ISBN 2-07-055991-2). Rééd. Paris : Gallimard jeunesse, 2009, 280 p. (Folio junior).  (ISBN 978-2-07-062325-9)
 Le Crime parfait (Framed, Macmillan Children's Books, 2005). Paris : Gallimard jeunesse, 2007, 308 p.  (ISBN 978-2-07-057596-1)
 Un ticket pour la lune (Cosmic, Macmillan Children's Books, 2008). Paris : Gallimard jeunesse, 2009, 360 p.  (ISBN 978-2-07-062239-9)
 (en) The Unforgotten coat, London, Walker Books, 2011
 Le jour où ma vie a changé / illustrations Gemma Correll ; traduit par Lilas Nord. Paris : Rageot, coll. "Flash fiction", 2017, 128 p.  (ISBN 978-2-7002-5511-9)
 Pièce de théâtre
-The Claim (ScreenPress Books, 2001)
-Prix et distinctions
-Médaille Carnegie 2004 pour Millions
-Guardian Award for Children's fiction 2012 pour The Unforgotten coat[1]
-(international) « Honour List » 2014[2] de l' IBBY pour The Unforgotten coat
-Finaliste Médaille Carnegie 2017[3] pour Sputnik’s Guide to Life on Earth </t>
+The Claim (ScreenPress Books, 2001)</t>
         </is>
       </c>
     </row>
@@ -615,15 +628,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médaille Carnegie 2004 pour Millions
+Guardian Award for Children's fiction 2012 pour The Unforgotten coat
+(international) « Honour List » 2014 de l' IBBY pour The Unforgotten coat
+Finaliste Médaille Carnegie 2017 pour Sputnik’s Guide to Life on Earth </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_Cottrell-Boyce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Cottrell-Boyce</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Adaptation
-2004 : Millions : film réalisé par Danny Boyle ("Trainspotting", "Petits meurtres entre amis") d'après un scénario de Frank Cottrell-Boyce.
-Comme scénariste
-1989 : The Real Eddy English (feuilleton TV)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 : Millions : film réalisé par Danny Boyle ("Trainspotting", "Petits meurtres entre amis") d'après un scénario de Frank Cottrell-Boyce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_Cottrell-Boyce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Cottrell-Boyce</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1989 : The Real Eddy English (feuilleton TV)
 1990 : Forget About Me
 1991 : Coronation Street (série TV)
 1993 : A Woman's Guide to Adultery (TV)
